--- a/Обзор крипто-кошельков.xlsx
+++ b/Обзор крипто-кошельков.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t xml:space="preserve">Критерии / Кошелёк  </t>
   </si>
@@ -255,12 +255,38 @@
   <si>
     <t xml:space="preserve">4,7 от 218 пользователей </t>
   </si>
+  <si>
+    <t>ввод пин кода (включается в настройках)</t>
+  </si>
+  <si>
+    <t>да (google drive)</t>
+  </si>
+  <si>
+    <t>Свайпом в лево можно сделать перевод по QR-коду. Перевод занимает 1-2 секунды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение хранит информацию без использования третьих сторон. 
+Это означает, что деньги хранятся прямо на телефоне и нигде больше, что дает окончательное сопротивление цензуре: никто не может заморозить аккаунт или отменить транзакции. Только сам пользователь является единственной ответственной стороной за обеспечение сохранности средств. 
+Интерфейс понятный. 
+Есть версия приложения в тестовой сети.
+</t>
+  </si>
+  <si>
+    <t>в смартфоне</t>
+  </si>
+  <si>
+    <t>Eclair Wallet — это биткоин-кошелек нового поколения, способный работать на протоколе Lightning. Его можно использовать как обычный биткоин-кошелек, а также подключить к Lightning Network, чтобы осуществлять дешевые и быстрые платежи. Приятный и интуитивнопонятный интерфейс и легкая навигация.   
+Есть версия приложения в тестовой сети.</t>
+  </si>
+  <si>
+    <t>За три нажатия можно сделать перевод Lighting по QR-коду. Перевод занимает меньше секунды. (4-5 простой перевод)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -287,13 +313,32 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -320,12 +365,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -333,6 +372,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -621,18 +678,18 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="5"/>
+    <col min="1" max="1" width="16.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,7 +703,7 @@
       <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F1" s="1"/>
@@ -673,7 +730,7 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -712,7 +769,7 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -723,7 +780,7 @@
         <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -749,15 +806,19 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -782,15 +843,19 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -815,8 +880,8 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -876,8 +941,8 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:27" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -886,8 +951,12 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -911,16 +980,20 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:27" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -974,7 +1047,7 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1013,7 +1086,7 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1079,7 +1152,7 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1088,8 +1161,12 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1114,13 +1191,17 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1252,8 +1333,12 @@
         <v>27</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1278,7 +1363,7 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1317,15 +1402,19 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1350,15 +1439,19 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1383,15 +1476,19 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1416,7 +1513,7 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1482,7 +1579,7 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1491,8 +1588,12 @@
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1517,7 +1618,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1554,15 +1655,19 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1616,7 +1721,7 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1628,7 +1733,7 @@
       <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="1"/>
@@ -1655,15 +1760,19 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1688,15 +1797,19 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1721,15 +1834,19 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1790,8 +1907,12 @@
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1897,10 +2018,10 @@
       <c r="C38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F38" s="1"/>
@@ -1957,7 +2078,7 @@
     </row>
     <row r="40" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2050,14 +2171,18 @@
     </row>
     <row r="43" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2123,11 +2248,15 @@
       <c r="B45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -30007,5 +30136,6 @@
     <hyperlink ref="D38" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Обзор крипто-кошельков.xlsx
+++ b/Обзор крипто-кошельков.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
   <si>
     <t xml:space="preserve">Критерии / Кошелёк  </t>
   </si>
@@ -262,9 +262,6 @@
     <t>да (google drive)</t>
   </si>
   <si>
-    <t>Свайпом в лево можно сделать перевод по QR-коду. Перевод занимает 1-2 секунды.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Приложение хранит информацию без использования третьих сторон. 
 Это означает, что деньги хранятся прямо на телефоне и нигде больше, что дает окончательное сопротивление цензуре: никто не может заморозить аккаунт или отменить транзакции. Только сам пользователь является единственной ответственной стороной за обеспечение сохранности средств. 
 Интерфейс понятный. 
@@ -279,7 +276,31 @@
 Есть версия приложения в тестовой сети.</t>
   </si>
   <si>
-    <t>За три нажатия можно сделать перевод Lighting по QR-коду. Перевод занимает меньше секунды. (4-5 простой перевод)</t>
+    <t>Wallet of satoshi</t>
+  </si>
+  <si>
+    <t>да (связь с электроннной почтой)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да </t>
+  </si>
+  <si>
+    <t>https://walletofsatoshi.com/</t>
+  </si>
+  <si>
+    <t>соблюдено всё кроме аутентификации</t>
+  </si>
+  <si>
+    <t>Полностью кастодиальный Lightning-кошелек для мобильных устройств, Wallet of Satoshi предлагает простой и практичный способ осуществления микротранзакций а также оплаты товаров и услуг через сканирование QR-кода</t>
+  </si>
+  <si>
+    <t>Свайпом влево можно сделать перевод по QR-коду. Перевод занимает 1-2 секунды.</t>
+  </si>
+  <si>
+    <t>За три нажатия можно сделать перевод по QR-коду. Перевод  Lightning занимает меньше секунды. (4-5 простой перевод)</t>
+  </si>
+  <si>
+    <t>За два нажатия можно сделать перевод по QR-коду. Перевод  Lightning занимает 3 сек</t>
   </si>
 </sst>
 </file>
@@ -354,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -380,17 +401,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,8 +702,8 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,7 +713,8 @@
     <col min="3" max="3" width="24.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.77734375" style="4" customWidth="1"/>
     <col min="5" max="5" width="35.88671875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="4"/>
+    <col min="6" max="6" width="27.44140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -706,7 +731,9 @@
       <c r="E1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -730,7 +757,7 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -745,7 +772,9 @@
       <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -769,7 +798,7 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,7 +811,9 @@
       <c r="E3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -806,20 +837,22 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -843,20 +876,22 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -880,7 +915,7 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
@@ -942,7 +977,7 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -951,13 +986,15 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>79</v>
+      <c r="D8" s="9" t="s">
+        <v>88</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>83</v>
+      <c r="E8" s="9" t="s">
+        <v>89</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -981,7 +1018,7 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -994,7 +1031,9 @@
       <c r="E9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1047,7 +1086,7 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1062,7 +1101,9 @@
       <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1086,7 +1127,7 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1099,7 +1140,9 @@
       <c r="E12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1152,7 +1195,7 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1161,13 +1204,15 @@
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1191,18 +1236,20 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1270,7 +1317,9 @@
       <c r="E17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1304,7 +1353,9 @@
       <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1333,13 +1384,15 @@
         <v>27</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="11" t="s">
-        <v>81</v>
+      <c r="D19" s="9" t="s">
+        <v>80</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>81</v>
+      <c r="E19" s="9" t="s">
+        <v>80</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1363,7 +1416,7 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1378,7 +1431,9 @@
       <c r="E20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1402,7 +1457,7 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1470,9 @@
       <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1439,7 +1496,7 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1452,7 +1509,9 @@
       <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1476,7 +1535,7 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1489,7 +1548,9 @@
       <c r="E23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1513,7 +1574,7 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1526,7 +1587,9 @@
       <c r="E24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1579,7 +1642,7 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1594,7 +1657,9 @@
       <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1618,7 +1683,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1696,9 @@
       <c r="E27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1655,7 +1722,7 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1668,7 +1735,9 @@
       <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1721,7 +1790,7 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1733,10 +1802,12 @@
       <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1760,7 +1831,7 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1770,10 +1841,12 @@
       <c r="D31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1797,7 +1870,7 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1807,10 +1880,12 @@
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1834,7 +1909,7 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1844,10 +1919,12 @@
       <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1913,7 +1990,9 @@
       <c r="E35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1950,7 +2029,9 @@
       <c r="E36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1987,7 +2068,9 @@
       <c r="E37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2024,7 +2107,9 @@
       <c r="E38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2183,7 +2268,9 @@
       <c r="E43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2248,16 +2335,18 @@
       <c r="B45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>80</v>
+      <c r="D45" s="9" t="s">
+        <v>79</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>82</v>
+      <c r="E45" s="10" t="s">
+        <v>81</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -30134,8 +30223,9 @@
     <hyperlink ref="C38" r:id="rId1"/>
     <hyperlink ref="E38" r:id="rId2"/>
     <hyperlink ref="D38" r:id="rId3"/>
+    <hyperlink ref="F38" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Обзор крипто-кошельков.xlsx
+++ b/Обзор крипто-кошельков.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
   <si>
     <t xml:space="preserve">Критерии / Кошелёк  </t>
   </si>
@@ -232,9 +232,6 @@
     <t xml:space="preserve">Хранение публичных ключей пользователя </t>
   </si>
   <si>
-    <t>Одноуровневая: пинкод при входе</t>
-  </si>
-  <si>
     <t>есть</t>
   </si>
   <si>
@@ -301,6 +298,16 @@
   </si>
   <si>
     <t>За два нажатия можно сделать перевод по QR-коду. Перевод  Lightning занимает 3 сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двухуровневая: пинкод при входе и при операции внутри приложения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Приложение находится в тестовой версии</t>
+  </si>
+  <si>
+    <t>BlueWallet</t>
   </si>
 </sst>
 </file>
@@ -407,14 +414,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,8 +709,8 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -714,7 +721,8 @@
     <col min="4" max="4" width="37.77734375" style="4" customWidth="1"/>
     <col min="5" max="5" width="35.88671875" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="14.44140625" style="4"/>
+    <col min="7" max="7" width="25.5546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,9 +740,11 @@
         <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -757,7 +767,7 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -770,7 +780,7 @@
         <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>65</v>
@@ -798,7 +808,7 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,10 +819,10 @@
         <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -837,7 +847,7 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>68</v>
       </c>
@@ -851,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -876,7 +886,7 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -915,7 +925,7 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
@@ -977,7 +987,7 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -987,13 +997,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1018,7 +1028,7 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1039,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>65</v>
@@ -1086,7 +1096,7 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1127,7 +1137,7 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1205,7 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1236,7 +1246,7 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1312,13 +1322,13 @@
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1385,13 +1395,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1416,7 +1426,7 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1457,7 +1467,7 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1506,7 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1535,7 +1545,7 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1574,7 +1584,7 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1642,7 +1652,7 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1683,7 +1693,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1722,7 +1732,7 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1790,7 +1800,7 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1831,7 +1841,7 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1845,7 +1855,7 @@
         <v>67</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1870,7 +1880,7 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1909,7 +1919,7 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
@@ -2063,13 +2073,13 @@
         <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2102,13 +2112,13 @@
         <v>53</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2269,7 +2279,7 @@
         <v>58</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2302,12 +2312,14 @@
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2339,13 +2351,13 @@
         <v>62</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>87</v>
+      <c r="F45" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>

--- a/Обзор крипто-кошельков.xlsx
+++ b/Обзор крипто-кошельков.xlsx
@@ -14,17 +14,14 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
   <si>
     <t xml:space="preserve">Критерии / Кошелёк  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Ether Wallet </t>
   </si>
   <si>
     <t xml:space="preserve">Безопасность </t>
@@ -235,9 +232,6 @@
     <t>есть</t>
   </si>
   <si>
-    <t xml:space="preserve">есть </t>
-  </si>
-  <si>
     <t>бесплатное</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>За три нажатия можно сделать перевод по QR-коду. Перевод  Lightning занимает меньше секунды. (4-5 простой перевод)</t>
   </si>
   <si>
-    <t>За два нажатия можно сделать перевод по QR-коду. Перевод  Lightning занимает 3 сек</t>
-  </si>
-  <si>
     <t xml:space="preserve">Двухуровневая: пинкод при входе и при операции внутри приложения </t>
   </si>
   <si>
@@ -308,6 +299,39 @@
   </si>
   <si>
     <t>BlueWallet</t>
+  </si>
+  <si>
+    <t>За три нажатия можно сделать перевод по QR-коду. Перевод  Lightning занимает 3 секунды</t>
+  </si>
+  <si>
+    <t>За два нажатия можно сделать перевод по QR-коду. Перевод  Lightning занимает 3 секунды</t>
+  </si>
+  <si>
+    <t>My Ether Wallet (пример)</t>
+  </si>
+  <si>
+    <t>Все необходимое для Lightning кошелька уже настроено и не предусматривает измений</t>
+  </si>
+  <si>
+    <t>Для работы Lightning кошелька нужно создать канал и положить на него от 300000 satoshi. Канал активируется через 20 минут ( возможно 12 часов). Также можно подключится к уже существующим публичным каналам, отсканировав его QR-код настройки.</t>
+  </si>
+  <si>
+    <t>Для работы Lightning кошелька нужно создать канал и положить на него от 100000 satoshi. Канал активируется через 20 минут ( возможно 12 часов). Также можно подключится к уже существующим публичным каналам, отсканировав его QR-код настройки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание Lightning кошелька осуществляется с помошью одного нажатия. </t>
+  </si>
+  <si>
+    <t>Расширение для Google Chrome</t>
+  </si>
+  <si>
+    <t>https://bluewallet.io/</t>
+  </si>
+  <si>
+    <t>Одноуровневая: пароль при входе</t>
+  </si>
+  <si>
+    <t>да (QR-код кошелька)</t>
   </si>
 </sst>
 </file>
@@ -355,18 +379,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -382,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -405,14 +423,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -422,6 +443,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,10 +737,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1005"/>
+  <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -731,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>64</v>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>92</v>
+      <c r="G1" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -767,25 +797,27 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -808,23 +840,25 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -847,21 +881,21 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>67</v>
+      <c r="C4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -886,21 +920,21 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="D5" s="8" t="s">
+        <v>64</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>65</v>
+      <c r="E5" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -925,12 +959,12 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -987,25 +1021,27 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
+      <c r="D8" s="8" t="s">
+        <v>85</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>88</v>
+      <c r="E8" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1028,23 +1064,25 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1096,25 +1134,27 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1137,23 +1177,25 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1205,25 +1247,27 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
+      <c r="D14" s="8" t="s">
+        <v>64</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>65</v>
+      <c r="E14" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1246,21 +1290,23 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="9" t="s">
-        <v>65</v>
+      <c r="D15" s="8" t="s">
+        <v>64</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>65</v>
+      <c r="E15" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1311,26 +1357,28 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
+      <c r="D17" s="1" t="s">
+        <v>94</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
+      <c r="E17" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1354,19 +1402,21 @@
     </row>
     <row r="18" spans="1:27" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1391,19 +1441,21 @@
     <row r="19" spans="1:27" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="9" t="s">
-        <v>79</v>
+      <c r="D19" s="8" t="s">
+        <v>77</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>79</v>
+      <c r="E19" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1426,25 +1478,27 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1467,23 +1521,25 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1506,23 +1562,25 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1545,23 +1603,25 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1584,23 +1644,25 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1652,25 +1714,27 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1693,23 +1757,25 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1732,23 +1798,25 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1770,54 +1838,52 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
+    <row r="29" spans="1:27" s="11" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
     </row>
     <row r="30" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1841,23 +1907,27 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>67</v>
+      <c r="E31" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1880,23 +1950,25 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>65</v>
+      <c r="E32" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1919,23 +1991,25 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>65</v>
+      <c r="E33" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1958,13 +2032,25 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1988,21 +2074,11 @@
     </row>
     <row r="35" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2028,19 +2104,19 @@
     <row r="36" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2067,19 +2143,19 @@
     <row r="37" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2103,24 +2179,26 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>53</v>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>73</v>
+      <c r="D38" s="1" t="s">
+        <v>69</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>72</v>
+      <c r="E38" s="1" t="s">
+        <v>69</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>84</v>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2142,14 +2220,26 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2173,12 +2263,8 @@
     </row>
     <row r="40" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2206,8 +2292,12 @@
     </row>
     <row r="41" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2234,9 +2324,7 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2265,22 +2353,14 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="8" t="s">
-        <v>57</v>
+      <c r="A43" s="3" t="s">
+        <v>55</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2305,22 +2385,24 @@
     </row>
     <row r="44" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>59</v>
+      <c r="B44" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>75</v>
+      <c r="D44" s="7" t="s">
+        <v>57</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>74</v>
+      <c r="E44" s="7" t="s">
+        <v>57</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>91</v>
+      <c r="F44" s="1" t="s">
+        <v>83</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2342,24 +2424,26 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="207.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>62</v>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>78</v>
+      <c r="D45" s="1" t="s">
+        <v>73</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>80</v>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>86</v>
+      <c r="F45" s="8" t="s">
+        <v>88</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>4.3</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2381,13 +2465,23 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="207.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -30221,23 +30315,53 @@
       <c r="Z1005" s="1"/>
       <c r="AA1005" s="1"/>
     </row>
+    <row r="1006" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="1"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+      <c r="I1006" s="1"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+      <c r="Z1006" s="1"/>
+      <c r="AA1006" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A31:A34"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A26:A29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C38" r:id="rId1"/>
-    <hyperlink ref="E38" r:id="rId2"/>
-    <hyperlink ref="D38" r:id="rId3"/>
-    <hyperlink ref="F38" r:id="rId4"/>
+    <hyperlink ref="C39" r:id="rId1"/>
+    <hyperlink ref="E39" r:id="rId2"/>
+    <hyperlink ref="D39" r:id="rId3"/>
+    <hyperlink ref="F39" r:id="rId4"/>
+    <hyperlink ref="G39" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Обзор крипто-кошельков.xlsx
+++ b/Обзор крипто-кошельков.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
   <si>
     <t xml:space="preserve">Критерии / Кошелёк  </t>
   </si>
@@ -282,9 +282,6 @@
     <t>соблюдено всё кроме аутентификации</t>
   </si>
   <si>
-    <t>Полностью кастодиальный Lightning-кошелек для мобильных устройств, Wallet of Satoshi предлагает простой и практичный способ осуществления микротранзакций а также оплаты товаров и услуг через сканирование QR-кода</t>
-  </si>
-  <si>
     <t>Свайпом влево можно сделать перевод по QR-коду. Перевод занимает 1-2 секунды.</t>
   </si>
   <si>
@@ -292,10 +289,6 @@
   </si>
   <si>
     <t xml:space="preserve">Двухуровневая: пинкод при входе и при операции внутри приложения </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Приложение находится в тестовой версии</t>
   </si>
   <si>
     <t>BlueWallet</t>
@@ -332,6 +325,19 @@
   </si>
   <si>
     <t>да (QR-код кошелька)</t>
+  </si>
+  <si>
+    <t>приложение очен хорошо подходит прежде всего для новичков в криптовалютном пространстве, либо для пользователей, которые предпочитают удобство и простоту. Позволяет создавать неограниченное кол-во кошельков бесплатно. Приятный и понятный интерфейс.</t>
+  </si>
+  <si>
+    <t>4,3 от 198 пользователей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Приложение находится на стадии тестирования</t>
+  </si>
+  <si>
+    <t>Полностью кастодиальный Lightning-кошелек для мобильных устройств, Wallet of Satoshi предлагает простой и практичный способ осуществления микротранзакций а также оплаты товаров и услуг через сканирование QR-кода. Однако обычные биткоин переводы отсутствуют. Параметров настройки очень мало.</t>
   </si>
 </sst>
 </file>
@@ -438,20 +444,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -739,8 +745,8 @@
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>62</v>
@@ -773,7 +779,7 @@
         <v>79</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -797,7 +803,7 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -810,13 +816,13 @@
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -840,11 +846,11 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -857,7 +863,7 @@
         <v>80</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -881,11 +887,11 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -920,8 +926,8 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -959,8 +965,8 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1021,7 +1027,7 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1031,16 +1037,16 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1064,7 +1070,7 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1134,7 +1140,7 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1152,8 +1158,8 @@
       <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
+      <c r="G11" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1177,7 +1183,7 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1193,7 +1199,7 @@
       <c r="F12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="8" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="1"/>
@@ -1247,7 +1253,7 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1290,7 +1296,7 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1368,16 +1374,16 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1478,7 +1484,7 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1521,7 +1527,7 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1562,7 +1568,7 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1603,7 +1609,7 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1644,7 +1650,7 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1714,7 +1720,7 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1757,7 +1763,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1798,7 +1804,7 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1839,9 +1845,9 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" s="11" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="8" t="s">
@@ -1907,7 +1913,7 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1950,7 +1956,7 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
@@ -1991,7 +1997,7 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
@@ -2032,7 +2038,7 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2118,7 +2124,9 @@
       <c r="F36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2157,7 +2165,9 @@
       <c r="F37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2237,8 +2247,8 @@
       <c r="F39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>98</v>
+      <c r="G39" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2292,7 +2302,7 @@
     </row>
     <row r="41" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2385,7 +2395,7 @@
     </row>
     <row r="44" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2439,10 +2449,10 @@
         <v>72</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
-      <c r="G45" s="1">
-        <v>4.3</v>
+      <c r="G45" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2480,9 +2490,11 @@
         <v>78</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>

--- a/Обзор крипто-кошельков.xlsx
+++ b/Обзор крипто-кошельков.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="106">
   <si>
     <t xml:space="preserve">Критерии / Кошелёк  </t>
   </si>
@@ -327,9 +327,6 @@
     <t>да (QR-код кошелька)</t>
   </si>
   <si>
-    <t>приложение очен хорошо подходит прежде всего для новичков в криптовалютном пространстве, либо для пользователей, которые предпочитают удобство и простоту. Позволяет создавать неограниченное кол-во кошельков бесплатно. Приятный и понятный интерфейс.</t>
-  </si>
-  <si>
     <t>4,3 от 198 пользователей</t>
   </si>
   <si>
@@ -337,7 +334,19 @@
 Приложение находится на стадии тестирования</t>
   </si>
   <si>
-    <t>Полностью кастодиальный Lightning-кошелек для мобильных устройств, Wallet of Satoshi предлагает простой и практичный способ осуществления микротранзакций а также оплаты товаров и услуг через сканирование QR-кода. Однако обычные биткоин переводы отсутствуют. Параметров настройки очень мало.</t>
+    <t>да (Lightning нет)</t>
+  </si>
+  <si>
+    <t>Полностью кастодиальный Lightning-кошелек для мобильных устройств, Wallet of Satoshi предлагает простой и практичный способ осуществления микротранзакций а также оплаты товаров и услуг через сканирование QR-кода. Однако обычные биткоин переводы отсутствуют (кроме пополнения с комиссией). Параметров настройки очень мало.</t>
+  </si>
+  <si>
+    <t>да (также поддержка apple watch)</t>
+  </si>
+  <si>
+    <t>Приложение очен хорошо подходит прежде всего для новичков в криптовалютном пространстве, либо для пользователей, которые предпочитают удобство и простоту. Позволяет создавать неограниченное кол-во кошельков бесплатно. Приятный и понятный интерфейс.</t>
+  </si>
+  <si>
+    <t>Bitlum</t>
   </si>
 </sst>
 </file>
@@ -378,7 +387,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -432,17 +441,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -458,6 +461,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -758,7 +767,8 @@
     <col min="5" max="5" width="35.88671875" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.5546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="14.44140625" style="4"/>
+    <col min="8" max="8" width="28.6640625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,7 +791,9 @@
       <c r="G1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -803,7 +815,7 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -824,7 +836,9 @@
       <c r="G2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -846,11 +860,11 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -859,13 +873,15 @@
       <c r="E3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -887,11 +903,11 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -903,8 +919,12 @@
       <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -926,8 +946,8 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -939,11 +959,15 @@
       <c r="E5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -965,18 +989,28 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1027,7 +1061,7 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1070,7 +1104,7 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,7 +1174,7 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1183,7 +1217,7 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1287,7 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1296,7 +1330,7 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1410,7 @@
       <c r="D17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1484,7 +1518,7 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1527,7 +1561,7 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1568,7 +1602,7 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1609,7 +1643,7 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,7 +1684,7 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1658,16 +1692,16 @@
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1720,7 +1754,7 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1739,9 +1773,11 @@
         <v>66</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1763,7 +1799,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1782,7 +1818,9 @@
       <c r="G27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1804,7 +1842,7 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1823,7 +1861,9 @@
       <c r="G28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1844,12 +1884,12 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" s="11" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:27" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
       <c r="B29" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1860,28 +1900,30 @@
         <v>29</v>
       </c>
       <c r="G29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -1913,7 +1955,7 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1929,7 +1971,7 @@
         <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>68</v>
@@ -1956,7 +1998,7 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
@@ -1997,7 +2039,7 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
@@ -2005,13 +2047,13 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>64</v>
@@ -2038,7 +2080,7 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2046,13 +2088,13 @@
         <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>64</v>
@@ -2247,7 +2289,7 @@
       <c r="F39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="12" t="s">
         <v>96</v>
       </c>
       <c r="H39" s="1"/>
@@ -2302,7 +2344,7 @@
     </row>
     <row r="41" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2395,7 +2437,7 @@
     </row>
     <row r="44" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2410,7 +2452,7 @@
       <c r="F44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H44" s="1"/>
@@ -2449,10 +2491,10 @@
         <v>72</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2475,7 +2517,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="207.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="238.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>60</v>
@@ -2486,14 +2528,14 @@
       <c r="D46" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>99</v>
+      <c r="G46" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>

--- a/Обзор крипто-кошельков.xlsx
+++ b/Обзор крипто-кошельков.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="109">
   <si>
     <t xml:space="preserve">Критерии / Кошелёк  </t>
   </si>
@@ -181,12 +181,6 @@
     <t>https://www.myetherwallet.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">Биржа, с которой работают </t>
-  </si>
-  <si>
-    <t>Simplex: https://www.simplex.com/</t>
-  </si>
-  <si>
     <t>ИТОГИ</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">Хранение публичных ключей пользователя </t>
-  </si>
-  <si>
-    <t>есть</t>
   </si>
   <si>
     <t>бесплатное</t>
@@ -343,10 +334,28 @@
     <t>да (также поддержка apple watch)</t>
   </si>
   <si>
-    <t>Приложение очен хорошо подходит прежде всего для новичков в криптовалютном пространстве, либо для пользователей, которые предпочитают удобство и простоту. Позволяет создавать неограниченное кол-во кошельков бесплатно. Приятный и понятный интерфейс.</t>
+    <t>Bitlum</t>
   </si>
   <si>
-    <t>Bitlum</t>
+    <t>За два нажатия можно сделать перевод по символьному адресу. Перевод  Lightning занимает 4-12 секунд</t>
+  </si>
+  <si>
+    <t>https://bitlum.io/</t>
+  </si>
+  <si>
+    <t>Критерии соблюдены</t>
+  </si>
+  <si>
+    <t>4,7 от 9 пользователей</t>
+  </si>
+  <si>
+    <t>в браузере</t>
+  </si>
+  <si>
+    <t>Приложение очень хорошо подходит прежде всего для новичков в криптовалютном пространстве, либо для пользователей, которые предпочитают удобство и простоту. Позволяет создавать неограниченное кол-во кошельков бесплатно. Приятный и понятный интерфейс.</t>
+  </si>
+  <si>
+    <t>Данный кошелёк подойдёт тем, кто совершает покупки за криптовалюту через Lightning, сидя за компьютером. Кошелек работает прямо из браузера и требует установки одним кликом. Нет необходимости загружать и запускать дополнительное программное обеспечение на компьютере. Интерфейс понятный с минимумом возможностей. Расширение находится в бета версии.</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -459,14 +468,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,10 +767,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1006"/>
+  <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -777,22 +792,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -815,7 +830,7 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -825,19 +840,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -860,7 +875,7 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,19 +883,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -903,27 +918,27 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -946,7 +961,7 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
@@ -954,19 +969,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -989,7 +1004,7 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -997,19 +1012,19 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1061,7 +1076,7 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1071,18 +1086,20 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>89</v>
+      <c r="H8" s="13" t="s">
+        <v>102</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1104,7 +1121,7 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,18 +1129,20 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1174,7 +1193,7 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1184,18 +1203,20 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>64</v>
+      <c r="H11" s="1" t="s">
+        <v>62</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1217,7 +1238,7 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,18 +1246,20 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1287,7 +1310,7 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1297,18 +1320,20 @@
         <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1330,24 +1355,26 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1408,18 +1435,20 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>94</v>
+      <c r="H17" s="13" t="s">
+        <v>88</v>
       </c>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1446,18 +1475,20 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1478,25 +1509,27 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1517,70 +1550,60 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:27" s="14" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+    </row>
+    <row r="21" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1602,12 +1625,12 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>29</v>
@@ -1621,7 +1644,9 @@
       <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1643,12 +1668,12 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>29</v>
@@ -1662,7 +1687,9 @@
       <c r="G23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1684,26 +1711,28 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1725,14 +1754,28 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1754,30 +1797,14 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1799,24 +1826,26 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>29</v>
@@ -1842,24 +1871,24 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>29</v>
@@ -1884,98 +1913,98 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="8" t="s">
-        <v>95</v>
+    <row r="29" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-    </row>
-    <row r="30" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-    </row>
-    <row r="31" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>39</v>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" s="10" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="8" t="s">
+        <v>92</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
+      <c r="E30" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+    </row>
+    <row r="31" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1998,26 +2027,30 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2039,26 +2072,28 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2080,26 +2115,28 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="G34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2121,14 +2158,28 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2151,24 +2202,12 @@
     </row>
     <row r="36" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2193,24 +2232,26 @@
     <row r="37" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2234,24 +2275,26 @@
     <row r="38" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2272,27 +2315,29 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>52</v>
+      <c r="C39" s="1" t="s">
+        <v>50</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>71</v>
+      <c r="D39" s="1" t="s">
+        <v>66</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>70</v>
+      <c r="E39" s="1" t="s">
+        <v>66</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>82</v>
+      <c r="F39" s="1" t="s">
+        <v>66</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>96</v>
+      <c r="G39" s="8" t="s">
+        <v>66</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2313,15 +2358,29 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2344,12 +2403,8 @@
     </row>
     <row r="41" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2376,7 +2431,9 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2405,16 +2462,28 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="D43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2437,25 +2506,27 @@
     </row>
     <row r="44" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>57</v>
+      <c r="D44" s="1" t="s">
+        <v>70</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>57</v>
+      <c r="E44" s="1" t="s">
+        <v>69</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>83</v>
+      <c r="F44" s="8" t="s">
+        <v>97</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>57</v>
+      <c r="G44" s="8" t="s">
+        <v>96</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2476,27 +2547,29 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="238.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>72</v>
+      <c r="E45" s="16" t="s">
+        <v>75</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" s="8" t="s">
+      <c r="F45" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="G45" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2517,26 +2590,14 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="238.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>104</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -30369,53 +30430,25 @@
       <c r="Z1005" s="1"/>
       <c r="AA1005" s="1"/>
     </row>
-    <row r="1006" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="1"/>
-      <c r="B1006" s="1"/>
-      <c r="C1006" s="1"/>
-      <c r="D1006" s="1"/>
-      <c r="E1006" s="1"/>
-      <c r="F1006" s="1"/>
-      <c r="G1006" s="1"/>
-      <c r="H1006" s="1"/>
-      <c r="I1006" s="1"/>
-      <c r="J1006" s="1"/>
-      <c r="K1006" s="1"/>
-      <c r="L1006" s="1"/>
-      <c r="M1006" s="1"/>
-      <c r="N1006" s="1"/>
-      <c r="O1006" s="1"/>
-      <c r="P1006" s="1"/>
-      <c r="Q1006" s="1"/>
-      <c r="R1006" s="1"/>
-      <c r="S1006" s="1"/>
-      <c r="T1006" s="1"/>
-      <c r="U1006" s="1"/>
-      <c r="V1006" s="1"/>
-      <c r="W1006" s="1"/>
-      <c r="X1006" s="1"/>
-      <c r="Y1006" s="1"/>
-      <c r="Z1006" s="1"/>
-      <c r="AA1006" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1"/>
-    <hyperlink ref="E39" r:id="rId2"/>
-    <hyperlink ref="D39" r:id="rId3"/>
-    <hyperlink ref="F39" r:id="rId4"/>
-    <hyperlink ref="G39" r:id="rId5"/>
+    <hyperlink ref="C40" r:id="rId1"/>
+    <hyperlink ref="E40" r:id="rId2"/>
+    <hyperlink ref="D40" r:id="rId3"/>
+    <hyperlink ref="F40" r:id="rId4"/>
+    <hyperlink ref="G40" r:id="rId5"/>
+    <hyperlink ref="H40" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>